--- a/Chapter_3_Data_Analysis_in_Pandas/Chapter_3_Case_Study/files/bene_pvt.xlsx
+++ b/Chapter_3_Data_Analysis_in_Pandas/Chapter_3_Case_Study/files/bene_pvt.xlsx
@@ -31,7 +31,7 @@
     <t>total_payments</t>
   </si>
   <si>
-    <t>PMPM</t>
+    <t>PMPY</t>
   </si>
   <si>
     <t>2008</t>
